--- a/SEM 6/Progress.xlsx
+++ b/SEM 6/Progress.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482F387F-F92A-4B3A-8283-7A0358D0EB58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5549D59B-E706-4B5A-A68F-5253131ECEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="35">
   <si>
     <t>EXP1</t>
   </si>
@@ -114,29 +114,32 @@
     <t>ASS6</t>
   </si>
   <si>
-    <t>S1</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>S3</t>
-  </si>
-  <si>
-    <t>S4</t>
-  </si>
-  <si>
-    <t>S5</t>
-  </si>
-  <si>
-    <t>S6</t>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>MDPW</t>
+  </si>
+  <si>
+    <t>WB</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,8 +178,34 @@
       <name val="Microsoft JhengHei UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Microsoft JhengHei UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Microsoft JhengHei UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +215,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -198,11 +237,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -212,9 +253,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Accent3" xfId="1" builtinId="37"/>
+    <cellStyle name="Bad" xfId="3" builtinId="27"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -493,20 +542,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="8" width="15.77734375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="7" width="15.77734375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="22.2" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>28</v>
       </c>
@@ -522,377 +571,316 @@
       <c r="G2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
-      <c r="C19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
@@ -911,11 +899,8 @@
       <c r="G20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -934,11 +919,8 @@
       <c r="G21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>16</v>
       </c>
@@ -957,11 +939,8 @@
       <c r="G22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>17</v>
       </c>
@@ -980,11 +959,8 @@
       <c r="G23" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>18</v>
       </c>
@@ -1003,11 +979,8 @@
       <c r="G24" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1026,14 +999,11 @@
       <c r="G25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>19</v>
       </c>
@@ -1052,11 +1022,8 @@
       <c r="G27" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>20</v>
       </c>
@@ -1075,11 +1042,8 @@
       <c r="G28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>21</v>
       </c>
@@ -1098,11 +1062,8 @@
       <c r="G29" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1121,11 +1082,8 @@
       <c r="G30" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
@@ -1144,11 +1102,8 @@
       <c r="G31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>24</v>
       </c>
@@ -1165,9 +1120,6 @@
         <v>15</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" s="4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/SEM 6/Progress.xlsx
+++ b/SEM 6/Progress.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5549D59B-E706-4B5A-A68F-5253131ECEB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D799BA-FB31-4EE7-B4B9-ACE1F2AF805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -545,7 +545,7 @@
   <dimension ref="B2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/SEM 6/Progress.xlsx
+++ b/SEM 6/Progress.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Degree\SEM 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\degree\SEM 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D799BA-FB31-4EE7-B4B9-ACE1F2AF805D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133E997-ADDE-42CE-B7CE-9BF2566E72D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
   <si>
     <t>EXP1</t>
   </si>
@@ -78,15 +78,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>ASS3</t>
-  </si>
-  <si>
-    <t>ASS4</t>
-  </si>
-  <si>
-    <t>ASS5</t>
-  </si>
-  <si>
     <t>TUT1</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
   </si>
   <si>
     <t>EXP15</t>
-  </si>
-  <si>
-    <t>ASS6</t>
   </si>
   <si>
     <t>DS</t>
@@ -542,337 +530,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:G32"/>
+  <dimension ref="B2:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="7" width="15.77734375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="22.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -880,12 +868,12 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
     </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>15</v>
+      <c r="C20" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>15</v>
@@ -900,7 +888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
@@ -920,70 +908,53 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3" t="s">
+      <c r="C23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+      <c r="C24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C25" s="4" t="s">
         <v>15</v>
       </c>
@@ -1000,12 +971,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3"/>
-    </row>
-    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>15</v>
@@ -1023,9 +1011,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>15</v>
@@ -1040,86 +1028,6 @@
         <v>15</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" s="4" t="s">
         <v>15</v>
       </c>
     </row>
